--- a/biology/Botanique/Jardin_d'Éden_(La_Réunion)/Jardin_d'Éden_(La_Réunion).xlsx
+++ b/biology/Botanique/Jardin_d'Éden_(La_Réunion)/Jardin_d'Éden_(La_Réunion).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_d%27%C3%89den_(La_R%C3%A9union)</t>
+          <t>Jardin_d'Éden_(La_Réunion)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin d'Éden est un jardin paysager situé en France sur l'île de La Réunion, à l'Hermitage dans la commune de Saint-Paul, sur la côte ouest de l'île à proximité des plages et des principales stations touristiques de l'île.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_d%27%C3%89den_(La_R%C3%A9union)</t>
+          <t>Jardin_d'Éden_(La_Réunion)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Histoire du jardin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine le jardin était une terre agricole où l'on cultivait des asperges et des melons, qui dispose d'un atout majeur, un approvisionnement en eau toute l'année grâce à une nappe phréatique et un étang naturel. Le couple Kaufmant a collecté des graines pendant deux ans et aménagé le jardin pendant un an. Le jardin est inauguré et ouvert au public en 1991.
-Au décès de Philippe Kaufmant, son épouse prend le soin de pérenniser son œuvre[1].
+Au décès de Philippe Kaufmant, son épouse prend le soin de pérenniser son œuvre.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_d%27%C3%89den_(La_R%C3%A9union)</t>
+          <t>Jardin_d'Éden_(La_Réunion)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>L'agencement du jardin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Élaboré dans une perspective ethnobotanique, indigène et exotique, le jardin permet aux visiteurs de découvrir l’essentiel de la flore réunionnaise.
 Pour retrouver toutes les plantes facilement, les visiteurs peuvent utiliser un livre guide remis à l'entrée. Sur les parcours, de nombreux panneaux pédagogiques interprètent les différents thèmes du jardin, chacun des thèmes présentant une grande collection de plantes :
@@ -560,7 +576,7 @@
 			 Ortochiffon, plante médicinale
 			 Fleur de cactus
 			 Feuilles de jasmin
-Le jardin d’Éden contient un joli rucher et un village créole miniature abordant des sujets tels que la flore divine de l'hindouisme et ces thèmes insistent sur l'aspect multiculturel de la Réunion. En intégrant une rizière,un jardin zen, un jardin aquatique, le jardin d'Éden dépasse largement le cadre géographique de l'île. De plus, le jardin est conçu dans un esprit romantique avec des coins intimes et ombragés[2].
+Le jardin d’Éden contient un joli rucher et un village créole miniature abordant des sujets tels que la flore divine de l'hindouisme et ces thèmes insistent sur l'aspect multiculturel de la Réunion. En intégrant une rizière,un jardin zen, un jardin aquatique, le jardin d'Éden dépasse largement le cadre géographique de l'île. De plus, le jardin est conçu dans un esprit romantique avec des coins intimes et ombragés.
 </t>
         </is>
       </c>
